--- a/Documents/meeting_jegyzokonyv.xlsx
+++ b/Documents/meeting_jegyzokonyv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Evelin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Evelin\Documents\GitHub\Unideb_2019_1_1_Csigabiga_nagyProjekt\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5989E464-386D-4AD0-86F8-6E51CCC0604B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76492601-5AC6-4406-B6F2-5E6E4721B714}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9870" yWindow="2640" windowWidth="13830" windowHeight="9360" xr2:uid="{ADDCD913-DFC3-41E4-B177-8270B1F8C5E1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{ADDCD913-DFC3-41E4-B177-8270B1F8C5E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Fázis</t>
   </si>
@@ -106,6 +106,12 @@
   </si>
   <si>
     <t>A meglévő GUIhz megkezdtük a backend tervezését, Tomi összekapcsolta az oldalakat. Jelenleg mindenkinek hibamentesen fut a program</t>
+  </si>
+  <si>
+    <t>Prezentáció készítése</t>
+  </si>
+  <si>
+    <t>A prezentáció elkezdése, és feltöltése gitre. Jelenlegi problémák és gondok megbeszélése</t>
   </si>
 </sst>
 </file>
@@ -499,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC569DD-6234-4A3B-AECE-0BA025708F94}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,6 +633,17 @@
         <v>23</v>
       </c>
     </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="7">
+        <v>43785</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{76C40E2F-9275-459B-9D10-040D732BEC73}"/>
